--- a/Data/t19.1.xlsx
+++ b/Data/t19.1.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,12 +382,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Furto de veículo</t>
+          <t>Roubo a instituição financeira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -396,53 +396,53 @@
         </is>
       </c>
       <c r="D2">
-        <v>142.599079587759</v>
+        <v>1.503707104007567</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Furto de veículo</t>
+          <t>Roubo de carga</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D3">
-        <v>119.5428229106654</v>
+        <v>11.33726594058217</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Furto de veículo</t>
+          <t>Roubo de veículo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D4">
-        <v>100.4686812190891</v>
+        <v>295.7215713339049</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -452,108 +452,117 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D5">
-        <v>109.2555985743447</v>
+        <v>302.0852233652141</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Furto de veículo</t>
+          <t>Roubo a instituição financeira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D6">
-        <v>94.16578436035383</v>
+        <v>2.150349989335505</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Furto de veículo</t>
+          <t>Roubo de carga</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D7">
-        <v>69.51326946371546</v>
+        <v>13.42443379025678</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Roubo de carga</t>
+          <t>Roubo de veículo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
+          <t>31/12/2017</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>292.5194070621019</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Roubo de carga</t>
+          <t>Furto de veículo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>31/12/2017</t>
         </is>
+      </c>
+      <c r="D9">
+        <v>276.9874770058215</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Roubo de carga</t>
+          <t>Roubo a instituição financeira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>31/12/2018</t>
         </is>
+      </c>
+      <c r="D10">
+        <v>1.213026853601723</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -563,91 +572,97 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D11">
-        <v>0.1240131652376216</v>
+        <v>10.96543073447625</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Roubo de carga</t>
+          <t>Roubo de veículo</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
-        </is>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>245.1617376924052</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Roubo de carga</t>
+          <t>Furto de veículo</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
-        </is>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>243.4336388660364</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Roubo de veículo</t>
+          <t>Roubo a instituição financeira</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D14">
-        <v>378.1975589066653</v>
+        <v>0.7110696644275744</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Roubo de veículo</t>
+          <t>Roubo de carga</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D15">
-        <v>379.8115648911095</v>
+        <v>8.436185683820611</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -657,22 +672,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D16">
-        <v>341.6711981149175</v>
+        <v>180.4868330798366</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Roubo de veículo</t>
+          <t>Furto de veículo</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -681,18 +696,18 @@
         </is>
       </c>
       <c r="D17">
-        <v>239.9654747347979</v>
+        <v>218.2787271480123</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Roubo de veículo</t>
+          <t>Roubo a instituição financeira</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -701,67 +716,73 @@
         </is>
       </c>
       <c r="D18">
-        <v>301.6173092963617</v>
+        <v>0.5040368218516562</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Roubo de veículo</t>
+          <t>Roubo de carga</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D19">
-        <v>276.6765774694417</v>
+        <v>6.293685499770147</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Roubo a instituição financeira</t>
+          <t>Roubo de veículo</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>133.7588438583084</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Roubo a instituição financeira</t>
+          <t>Furto de veículo</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>165.687945739034</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -771,59 +792,62 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D22">
-        <v>462.2496147919877</v>
+        <v>0.4870619219114404</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Roubo a instituição financeira</t>
+          <t>Roubo de carga</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D23">
-        <v>159.2356687898089</v>
+        <v>6.768525769265649</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Roubo a instituição financeira</t>
+          <t>Roubo de veículo</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
-        </is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>128.083453577476</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Roubo a instituição financeira</t>
+          <t>Furto de veículo</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -832,7 +856,7 @@
         </is>
       </c>
       <c r="D25">
-        <v>170.9401709401709</v>
+        <v>172.2524822814674</v>
       </c>
     </row>
     <row r="26">
@@ -843,16 +867,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Furto de veículo</t>
+          <t>Roubo a instituição financeira</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D26">
-        <v>297.4644469362913</v>
+        <v>0.3802159882420602</v>
       </c>
     </row>
     <row r="27">
@@ -863,16 +887,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Furto de veículo</t>
+          <t>Roubo de carga</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D27">
-        <v>273.4562274139374</v>
+        <v>6.467526599564192</v>
       </c>
     </row>
     <row r="28">
@@ -883,16 +907,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Furto de veículo</t>
+          <t>Roubo de veículo</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D28">
-        <v>243.4336388660364</v>
+        <v>128.5514751260922</v>
       </c>
     </row>
     <row r="29">
@@ -908,62 +932,56 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D29">
-        <v>218.2787271480123</v>
+        <v>195.6634690836586</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Furto de veículo</t>
+          <t>Roubo a instituição financeira</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="D30">
-        <v>164.0441614445483</v>
+          <t>31/12/2016</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Furto de veículo</t>
+          <t>Roubo de carga</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="D31">
-        <v>169.539081716696</v>
+          <t>31/12/2016</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Roubo de carga</t>
+          <t>Roubo de veículo</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -972,53 +990,50 @@
         </is>
       </c>
       <c r="D32">
-        <v>24.89053236762102</v>
+        <v>378.1975589066652</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Roubo de carga</t>
+          <t>Furto de veículo</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D33">
-        <v>26.71591043031412</v>
+        <v>142.599079587759</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Roubo de carga</t>
+          <t>Roubo a instituição financeira</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D34">
-        <v>22.27570009268704</v>
+          <t>31/12/2017</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1028,97 +1043,91 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D35">
-        <v>16.84793176463571</v>
+          <t>31/12/2017</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Roubo de carga</t>
+          <t>Roubo de veículo</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D36">
-        <v>12.29569272518249</v>
+        <v>380.4861857878965</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Roubo de carga</t>
+          <t>Furto de veículo</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D37">
-        <v>12.15467065158492</v>
+        <v>116.9792635028746</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Roubo de veículo</t>
+          <t>Roubo a instituição financeira</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D38">
-        <v>291.1981350296679</v>
+        <v>0.4622496147919877</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Roubo de veículo</t>
+          <t>Roubo de carga</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D39">
-        <v>288.7901444688167</v>
+          <t>31/12/2018</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1132,113 +1141,113 @@
         </is>
       </c>
       <c r="D40">
-        <v>245.1617376924052</v>
+        <v>341.6711981149175</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Roubo de veículo</t>
+          <t>Furto de veículo</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D41">
-        <v>180.4868330798366</v>
+        <v>100.4686812190891</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Roubo de veículo</t>
+          <t>Roubo a instituição financeira</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D42">
-        <v>132.4318270629577</v>
+        <v>0.1592356687898089</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Roubo de veículo</t>
+          <t>Roubo de carga</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D43">
-        <v>127.1682192599936</v>
+        <v>0.04350292513668619</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Roubo a instituição financeira</t>
+          <t>Roubo de veículo</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D44">
-        <v>1503.707104007567</v>
+        <v>239.9654747347979</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Roubo a instituição financeira</t>
+          <t>Furto de veículo</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D45">
-        <v>2150.349989335505</v>
+        <v>109.2555985743447</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1248,42 +1257,39 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D46">
-        <v>1213.026853601723</v>
+        <v>0.1636661211129296</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Roubo a instituição financeira</t>
+          <t>Roubo de carga</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D47">
-        <v>711.0696644275744</v>
+          <t>31/12/2020</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Roubo a instituição financeira</t>
+          <t>Roubo de veículo</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1292,27 +1298,184 @@
         </is>
       </c>
       <c r="D48">
-        <v>504.0368218516562</v>
+        <v>301.6173092963617</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>Furto de veículo</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D49">
+        <v>94.16578436035383</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
           <t>Roubo a instituição financeira</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>31/12/2021</t>
         </is>
       </c>
-      <c r="D49">
-        <v>558.3852700180328</v>
+      <c r="D50">
+        <v>0.1709401709401709</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D51">
+        <v>0.09100162646448628</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Roubo de veículo</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D52">
+        <v>273.3500348713431</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Furto de veículo</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D53">
+        <v>253.2786583752849</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Roubo a instituição financeira</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Roubo de carga</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D55">
+        <v>0.09051584072470603</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Roubo de veículo</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D56">
+        <v>209.8330592866558</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Furto de veículo</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D57">
+        <v>287.7139022898047</v>
       </c>
     </row>
   </sheetData>

--- a/Data/t19.1.xlsx
+++ b/Data/t19.1.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -378,6 +378,11 @@
           <t>Valor</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Variável alternativa</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -398,6 +403,11 @@
       <c r="D2">
         <v>1.503707104007567</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -418,6 +428,11 @@
       <c r="D3">
         <v>11.33726594058217</v>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -438,6 +453,11 @@
       <c r="D4">
         <v>295.7215713339049</v>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -458,6 +478,11 @@
       <c r="D5">
         <v>302.0852233652141</v>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -478,6 +503,11 @@
       <c r="D6">
         <v>2.150349989335505</v>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -498,6 +528,11 @@
       <c r="D7">
         <v>13.42443379025678</v>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -518,6 +553,11 @@
       <c r="D8">
         <v>292.5194070621019</v>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -538,6 +578,11 @@
       <c r="D9">
         <v>276.9874770058215</v>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -558,6 +603,11 @@
       <c r="D10">
         <v>1.213026853601723</v>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -578,6 +628,11 @@
       <c r="D11">
         <v>10.96543073447625</v>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -598,6 +653,11 @@
       <c r="D12">
         <v>245.1617376924052</v>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -618,6 +678,11 @@
       <c r="D13">
         <v>243.4336388660364</v>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -638,6 +703,11 @@
       <c r="D14">
         <v>0.7110696644275744</v>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -658,6 +728,11 @@
       <c r="D15">
         <v>8.436185683820611</v>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -678,6 +753,11 @@
       <c r="D16">
         <v>180.4868330798366</v>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -698,6 +778,11 @@
       <c r="D17">
         <v>218.2787271480123</v>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -718,6 +803,11 @@
       <c r="D18">
         <v>0.5040368218516562</v>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -738,6 +828,11 @@
       <c r="D19">
         <v>6.293685499770147</v>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -758,6 +853,11 @@
       <c r="D20">
         <v>133.7588438583084</v>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -778,6 +878,11 @@
       <c r="D21">
         <v>165.687945739034</v>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -798,6 +903,11 @@
       <c r="D22">
         <v>0.4870619219114404</v>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -818,6 +928,11 @@
       <c r="D23">
         <v>6.768525769265649</v>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -838,6 +953,11 @@
       <c r="D24">
         <v>128.083453577476</v>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -858,6 +978,11 @@
       <c r="D25">
         <v>172.2524822814674</v>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -878,6 +1003,11 @@
       <c r="D26">
         <v>0.3802159882420602</v>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -898,6 +1028,11 @@
       <c r="D27">
         <v>6.467526599564192</v>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -918,6 +1053,11 @@
       <c r="D28">
         <v>128.5514751260922</v>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -938,6 +1078,11 @@
       <c r="D29">
         <v>195.6634690836586</v>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -955,6 +1100,11 @@
           <t>31/12/2016</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -972,6 +1122,11 @@
           <t>31/12/2016</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -992,6 +1147,11 @@
       <c r="D32">
         <v>378.1975589066652</v>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1012,6 +1172,11 @@
       <c r="D33">
         <v>142.599079587759</v>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1029,6 +1194,11 @@
           <t>31/12/2017</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1046,6 +1216,11 @@
           <t>31/12/2017</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1066,6 +1241,11 @@
       <c r="D36">
         <v>380.4861857878965</v>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1086,6 +1266,11 @@
       <c r="D37">
         <v>116.9792635028746</v>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1106,6 +1291,11 @@
       <c r="D38">
         <v>0.4622496147919877</v>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1123,6 +1313,11 @@
           <t>31/12/2018</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1143,6 +1338,11 @@
       <c r="D40">
         <v>341.6711981149175</v>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1163,6 +1363,11 @@
       <c r="D41">
         <v>100.4686812190891</v>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1183,6 +1388,11 @@
       <c r="D42">
         <v>0.1592356687898089</v>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1203,6 +1413,11 @@
       <c r="D43">
         <v>0.04350292513668619</v>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1223,6 +1438,11 @@
       <c r="D44">
         <v>239.9654747347979</v>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1243,6 +1463,11 @@
       <c r="D45">
         <v>109.2555985743447</v>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1263,6 +1488,11 @@
       <c r="D46">
         <v>0.1636661211129296</v>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1280,6 +1510,11 @@
           <t>31/12/2020</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1300,6 +1535,11 @@
       <c r="D48">
         <v>301.6173092963617</v>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1320,6 +1560,11 @@
       <c r="D49">
         <v>94.16578436035383</v>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1340,6 +1585,11 @@
       <c r="D50">
         <v>0.1709401709401709</v>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1360,6 +1610,11 @@
       <c r="D51">
         <v>0.09100162646448628</v>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1380,6 +1635,11 @@
       <c r="D52">
         <v>273.3500348713431</v>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1400,6 +1660,11 @@
       <c r="D53">
         <v>253.2786583752849</v>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1417,6 +1682,11 @@
           <t>31/12/2022</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1437,6 +1707,11 @@
       <c r="D55">
         <v>0.09051584072470603</v>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1457,6 +1732,11 @@
       <c r="D56">
         <v>209.8330592866558</v>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1476,6 +1756,11 @@
       </c>
       <c r="D57">
         <v>287.7139022898047</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Data/t19.1.xlsx
+++ b/Data/t19.1.xlsx
@@ -380,7 +380,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Variável alternativa</t>
+          <t>Legenda</t>
         </is>
       </c>
     </row>

--- a/Data/t19.1.xlsx
+++ b/Data/t19.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C692450-56BB-48D1-8169-75F186091E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F037B1-FDB6-49DC-99B8-5063D6D33561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="19">
   <si>
     <t>Região</t>
   </si>
@@ -53,6 +53,30 @@
   </si>
   <si>
     <t>Nordeste</t>
+  </si>
+  <si>
+    <t>31/12/2015</t>
+  </si>
+  <si>
+    <t>31/12/2016</t>
+  </si>
+  <si>
+    <t>31/12/2017</t>
+  </si>
+  <si>
+    <t>31/12/2018</t>
+  </si>
+  <si>
+    <t>31/12/2019</t>
+  </si>
+  <si>
+    <t>31/12/2020</t>
+  </si>
+  <si>
+    <t>31/12/2021</t>
+  </si>
+  <si>
+    <t>31/12/2022</t>
   </si>
 </sst>
 </file>
@@ -116,13 +140,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -431,13 +459,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection sqref="A1:D97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -461,8 +490,8 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>2015</v>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D2">
         <v>39.746942199133294</v>
@@ -475,8 +504,8 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>2015</v>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D3">
         <v>0.89381361682593574</v>
@@ -489,8 +518,8 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>2015</v>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D4">
         <v>2.0921328746546952</v>
@@ -503,8 +532,8 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>2015</v>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D5">
         <v>92.503440107698992</v>
@@ -517,8 +546,8 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
-        <v>2016</v>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D6">
         <v>45.017226142980995</v>
@@ -531,8 +560,8 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7">
-        <v>2016</v>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D7">
         <v>0.66264672860038509</v>
@@ -545,8 +574,8 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
-        <v>2016</v>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D8">
         <v>2.5063009331740371</v>
@@ -559,8 +588,8 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
-        <v>2016</v>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D9">
         <v>110.85082236774721</v>
@@ -573,8 +602,8 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10">
-        <v>2017</v>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D10">
         <v>46.855055075950425</v>
@@ -587,8 +616,8 @@
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11">
-        <v>2017</v>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D11">
         <v>0.51380042244670743</v>
@@ -601,8 +630,8 @@
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12">
-        <v>2017</v>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D12">
         <v>2.8418478538086851</v>
@@ -615,8 +644,8 @@
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13">
-        <v>2017</v>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D13">
         <v>114.8184488864873</v>
@@ -629,8 +658,8 @@
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="C14">
-        <v>2018</v>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D14">
         <v>45.154418244428633</v>
@@ -643,8 +672,8 @@
       <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15">
-        <v>2018</v>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D15">
         <v>0.39816225217482915</v>
@@ -657,8 +686,8 @@
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16">
-        <v>2018</v>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D16">
         <v>2.3449290161269807</v>
@@ -671,8 +700,8 @@
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17">
-        <v>2018</v>
+      <c r="C17" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D17">
         <v>110.8212395953685</v>
@@ -685,8 +714,8 @@
       <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="C18">
-        <v>2019</v>
+      <c r="C18" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D18">
         <v>44.55977392910323</v>
@@ -699,8 +728,8 @@
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19">
-        <v>2019</v>
+      <c r="C19" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D19">
         <v>0.19098798152932453</v>
@@ -713,8 +742,8 @@
       <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C20">
-        <v>2019</v>
+      <c r="C20" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D20">
         <v>1.8503055825226302</v>
@@ -727,8 +756,8 @@
       <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C21">
-        <v>2019</v>
+      <c r="C21" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D21">
         <v>84.670754416894937</v>
@@ -741,8 +770,8 @@
       <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="C22">
-        <v>2020</v>
+      <c r="C22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D22">
         <v>36.71856724976746</v>
@@ -755,8 +784,8 @@
       <c r="B23" t="s">
         <v>5</v>
       </c>
-      <c r="C23">
-        <v>2020</v>
+      <c r="C23" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D23">
         <v>0.13943539089483062</v>
@@ -769,8 +798,8 @@
       <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="C24">
-        <v>2020</v>
+      <c r="C24" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D24">
         <v>1.5425040117740638</v>
@@ -783,8 +812,8 @@
       <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="C25">
-        <v>2020</v>
+      <c r="C25" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D25">
         <v>81.421553570650161</v>
@@ -797,8 +826,8 @@
       <c r="B26" t="s">
         <v>8</v>
       </c>
-      <c r="C26">
-        <v>2021</v>
+      <c r="C26" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D26">
         <v>37.076122945609796</v>
@@ -811,8 +840,8 @@
       <c r="B27" t="s">
         <v>5</v>
       </c>
-      <c r="C27">
-        <v>2021</v>
+      <c r="C27" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D27">
         <v>0.13178922145205296</v>
@@ -825,8 +854,8 @@
       <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="C28">
-        <v>2021</v>
+      <c r="C28" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D28">
         <v>1.2676042221243515</v>
@@ -839,8 +868,8 @@
       <c r="B29" t="s">
         <v>7</v>
       </c>
-      <c r="C29">
-        <v>2021</v>
+      <c r="C29" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D29">
         <v>82.928367598704327</v>
@@ -853,8 +882,8 @@
       <c r="B30" t="s">
         <v>8</v>
       </c>
-      <c r="C30">
-        <v>2022</v>
+      <c r="C30" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D30">
         <v>50.934119183561116</v>
@@ -867,8 +896,8 @@
       <c r="B31" t="s">
         <v>5</v>
       </c>
-      <c r="C31">
-        <v>2022</v>
+      <c r="C31" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D31">
         <v>0.11216308388154191</v>
@@ -881,8 +910,8 @@
       <c r="B32" t="s">
         <v>6</v>
       </c>
-      <c r="C32">
-        <v>2022</v>
+      <c r="C32" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D32">
         <v>1.4719247777070037</v>
@@ -895,8 +924,8 @@
       <c r="B33" t="s">
         <v>7</v>
       </c>
-      <c r="C33">
-        <v>2022</v>
+      <c r="C33" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D33">
         <v>83.076607852199274</v>
@@ -909,8 +938,8 @@
       <c r="B34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="1">
-        <v>2015</v>
+      <c r="C34" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D34" s="1">
         <v>29.458775083380061</v>
@@ -923,8 +952,8 @@
       <c r="B35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="1">
-        <v>2015</v>
+      <c r="C35" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D35" s="1">
         <v>1.3533893606453322</v>
@@ -937,8 +966,8 @@
       <c r="B36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="1">
-        <v>2015</v>
+      <c r="C36" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D36" s="1">
         <v>2.3007619130970647</v>
@@ -951,8 +980,8 @@
       <c r="B37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="1">
-        <v>2015</v>
+      <c r="C37" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D37" s="1">
         <v>77.955227173171124</v>
@@ -965,8 +994,8 @@
       <c r="B38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="1">
-        <v>2016</v>
+      <c r="C38" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D38" s="1">
         <v>45.906991630355293</v>
@@ -979,8 +1008,8 @@
       <c r="B39" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="1">
-        <v>2016</v>
+      <c r="C39" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D39" s="1">
         <v>0.22350044610689043</v>
@@ -993,8 +1022,8 @@
       <c r="B40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="1">
-        <v>2016</v>
+      <c r="C40" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D40" s="1">
         <v>1.8327036580765015</v>
@@ -1007,8 +1036,8 @@
       <c r="B41" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="1">
-        <v>2016</v>
+      <c r="C41" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D41" s="1">
         <v>119.66213884562913</v>
@@ -1021,8 +1050,8 @@
       <c r="B42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="1">
-        <v>2017</v>
+      <c r="C42" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D42" s="1">
         <v>39.251023140383104</v>
@@ -1035,8 +1064,8 @@
       <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="1">
-        <v>2017</v>
+      <c r="C43" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D43" s="1">
         <v>0.35441104415695801</v>
@@ -1049,8 +1078,8 @@
       <c r="B44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="1">
-        <v>2017</v>
+      <c r="C44" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D44" s="1">
         <v>0.66452070779429628</v>
@@ -1063,8 +1092,8 @@
       <c r="B45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="1">
-        <v>2017</v>
+      <c r="C45" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D45" s="1">
         <v>124.70838616272961</v>
@@ -1077,8 +1106,8 @@
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="1">
-        <v>2018</v>
+      <c r="C46" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D46" s="1">
         <v>34.060364094758036</v>
@@ -1091,8 +1120,8 @@
       <c r="B47" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="1">
-        <v>2018</v>
+      <c r="C47" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -1105,8 +1134,8 @@
       <c r="B48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="1">
-        <v>2018</v>
+      <c r="C48" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D48" s="1">
         <v>4.3892221771595408E-2</v>
@@ -1119,8 +1148,8 @@
       <c r="B49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="1">
-        <v>2018</v>
+      <c r="C49" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D49" s="1">
         <v>115.83157325524029</v>
@@ -1133,8 +1162,8 @@
       <c r="B50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="1">
-        <v>2019</v>
+      <c r="C50" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D50" s="1">
         <v>42.107058065111083</v>
@@ -1147,8 +1176,8 @@
       <c r="B51" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="1">
-        <v>2019</v>
+      <c r="C51" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D51" s="1">
         <v>0.30449318848737356</v>
@@ -1161,8 +1190,8 @@
       <c r="B52" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="1">
-        <v>2019</v>
+      <c r="C52" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D52" s="1">
         <v>0.30449318848737356</v>
@@ -1175,8 +1204,8 @@
       <c r="B53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="1">
-        <v>2019</v>
+      <c r="C53" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D53" s="1">
         <v>91.086962384651457</v>
@@ -1189,8 +1218,8 @@
       <c r="B54" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="1">
-        <v>2020</v>
+      <c r="C54" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D54" s="1">
         <v>33.979694976179715</v>
@@ -1203,8 +1232,8 @@
       <c r="B55" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="1">
-        <v>2020</v>
+      <c r="C55" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D55" s="1">
         <v>8.624288065020233E-2</v>
@@ -1217,8 +1246,8 @@
       <c r="B56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="1">
-        <v>2020</v>
+      <c r="C56" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
@@ -1231,8 +1260,8 @@
       <c r="B57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="1">
-        <v>2020</v>
+      <c r="C57" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D57" s="1">
         <v>108.83851538055534</v>
@@ -1245,8 +1274,8 @@
       <c r="B58" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="1">
-        <v>2021</v>
+      <c r="C58" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D58" s="1">
         <v>25.911964315034751</v>
@@ -1259,8 +1288,8 @@
       <c r="B59" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C59" s="1">
-        <v>2021</v>
+      <c r="C59" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -1273,8 +1302,8 @@
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="1">
-        <v>2021</v>
+      <c r="C60" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
@@ -1287,8 +1316,8 @@
       <c r="B61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="1">
-        <v>2021</v>
+      <c r="C61" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D61" s="1">
         <v>103.1347490558809</v>
@@ -1301,8 +1330,8 @@
       <c r="B62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="1">
-        <v>2022</v>
+      <c r="C62" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D62" s="1">
         <v>37.576765174905852</v>
@@ -1315,8 +1344,8 @@
       <c r="B63" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="1">
-        <v>2022</v>
+      <c r="C63" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
@@ -1329,8 +1358,8 @@
       <c r="B64" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="1">
-        <v>2022</v>
+      <c r="C64" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
@@ -1343,8 +1372,8 @@
       <c r="B65" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C65" s="1">
-        <v>2022</v>
+      <c r="C65" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D65" s="1">
         <v>71.039595562039835</v>
@@ -1357,8 +1386,8 @@
       <c r="B66" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="1">
-        <v>2015</v>
+      <c r="C66" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D66" s="1">
         <v>132.17795661607386</v>
@@ -1371,8 +1400,8 @@
       <c r="B67" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="1">
-        <v>2015</v>
+      <c r="C67" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D67" s="1">
         <v>0.62464466577070044</v>
@@ -1385,8 +1414,8 @@
       <c r="B68" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="1">
-        <v>2015</v>
+      <c r="C68" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D68" s="1">
         <v>9.4974493831776439</v>
@@ -1399,8 +1428,8 @@
       <c r="B69" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="1">
-        <v>2015</v>
+      <c r="C69" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D69" s="1">
         <v>116.60754567905788</v>
@@ -1413,8 +1442,8 @@
       <c r="B70" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="1">
-        <v>2016</v>
+      <c r="C70" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D70" s="1">
         <v>135.95615138596551</v>
@@ -1427,8 +1456,8 @@
       <c r="B71" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="1">
-        <v>2016</v>
+      <c r="C71" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D71" s="1">
         <v>0.52691459524036632</v>
@@ -1441,8 +1470,8 @@
       <c r="B72" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="1">
-        <v>2016</v>
+      <c r="C72" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D72" s="1">
         <v>11.789043848735894</v>
@@ -1455,8 +1484,8 @@
       <c r="B73" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="1">
-        <v>2016</v>
+      <c r="C73" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D73" s="1">
         <v>132.45004899598959</v>
@@ -1469,8 +1498,8 @@
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="1">
-        <v>2017</v>
+      <c r="C74" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D74" s="1">
         <v>127.28044759863604</v>
@@ -1483,8 +1512,8 @@
       <c r="B75" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C75" s="1">
-        <v>2017</v>
+      <c r="C75" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D75" s="1">
         <v>0.40763088695340882</v>
@@ -1497,8 +1526,8 @@
       <c r="B76" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C76" s="1">
-        <v>2017</v>
+      <c r="C76" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D76" s="1">
         <v>12.453292838194651</v>
@@ -1511,8 +1540,8 @@
       <c r="B77" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C77" s="1">
-        <v>2017</v>
+      <c r="C77" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D77" s="1">
         <v>133.80109114616477</v>
@@ -1525,8 +1554,8 @@
       <c r="B78" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="1">
-        <v>2018</v>
+      <c r="C78" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D78" s="1">
         <v>115.83017138548712</v>
@@ -1539,8 +1568,8 @@
       <c r="B79" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C79" s="1">
-        <v>2018</v>
+      <c r="C79" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D79" s="1">
         <v>0.34485255994271319</v>
@@ -1553,8 +1582,8 @@
       <c r="B80" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C80" s="1">
-        <v>2018</v>
+      <c r="C80" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D80" s="1">
         <v>10.377232248846374</v>
@@ -1567,8 +1596,8 @@
       <c r="B81" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C81" s="1">
-        <v>2018</v>
+      <c r="C81" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D81" s="1">
         <v>117.48680663172097</v>
@@ -1581,8 +1610,8 @@
       <c r="B82" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="1">
-        <v>2019</v>
+      <c r="C82" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D82" s="1">
         <v>104.39400491441413</v>
@@ -1595,8 +1624,8 @@
       <c r="B83" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C83" s="1">
-        <v>2019</v>
+      <c r="C83" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D83" s="1">
         <v>0.20271512160825422</v>
@@ -1609,8 +1638,8 @@
       <c r="B84" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C84" s="1">
-        <v>2019</v>
+      <c r="C84" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D84" s="1">
         <v>8.3841261211639218</v>
@@ -1623,8 +1652,8 @@
       <c r="B85" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="1">
-        <v>2019</v>
+      <c r="C85" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D85" s="1">
         <v>87.904604928570876</v>
@@ -1637,8 +1666,8 @@
       <c r="B86" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="1">
-        <v>2020</v>
+      <c r="C86" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D86" s="1">
         <v>82.178664647182188</v>
@@ -1651,8 +1680,8 @@
       <c r="B87" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C87" s="1">
-        <v>2020</v>
+      <c r="C87" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D87" s="1">
         <v>0.15442323977765848</v>
@@ -1665,8 +1694,8 @@
       <c r="B88" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C88" s="1">
-        <v>2020</v>
+      <c r="C88" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D88" s="1">
         <v>6.2520161205395128</v>
@@ -1679,8 +1708,8 @@
       <c r="B89" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C89" s="1">
-        <v>2020</v>
+      <c r="C89" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D89" s="1">
         <v>66.154538126890117</v>
@@ -1693,8 +1722,8 @@
       <c r="B90" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="1">
-        <v>2021</v>
+      <c r="C90" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D90" s="1">
         <v>87.332206034776149</v>
@@ -1707,8 +1736,8 @@
       <c r="B91" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C91" s="1">
-        <v>2021</v>
+      <c r="C91" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D91" s="1">
         <v>0.18095081204231778</v>
@@ -1721,8 +1750,8 @@
       <c r="B92" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="1">
-        <v>2021</v>
+      <c r="C92" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D92" s="1">
         <v>6.3257778696866227</v>
@@ -1735,8 +1764,8 @@
       <c r="B93" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="1">
-        <v>2021</v>
+      <c r="C93" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D93" s="1">
         <v>64.126905136053935</v>
@@ -1749,8 +1778,8 @@
       <c r="B94" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="1">
-        <v>2022</v>
+      <c r="C94" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D94" s="1">
         <v>102.19684963645891</v>
@@ -1763,8 +1792,8 @@
       <c r="B95" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C95" s="1">
-        <v>2022</v>
+      <c r="C95" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D95" s="1">
         <v>0.1140444374848891</v>
@@ -1777,8 +1806,8 @@
       <c r="B96" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="1">
-        <v>2022</v>
+      <c r="C96" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D96" s="1">
         <v>6.0927658866927077</v>
@@ -1791,8 +1820,8 @@
       <c r="B97" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="1">
-        <v>2022</v>
+      <c r="C97" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D97" s="1">
         <v>65.739403153789524</v>
